--- a/ProjectG/src/test/resources/Project.xlsx
+++ b/ProjectG/src/test/resources/Project.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEEVAN SOORAJ\Desktop\java.workspace\ProjectG\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEEVAN SOORAJ\git\repository\ProjectG\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0D7868-68A6-4C62-89E2-189BD72C51FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD0B1E4-9EC3-4590-B6BA-EFD88C69878F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{787C7C8B-2596-4B62-91E2-34C89AE78464}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{787C7C8B-2596-4B62-91E2-34C89AE78464}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
     <sheet name="RegisterData" sheetId="2" r:id="rId2"/>
     <sheet name="ProjectG" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>UserName</t>
   </si>
@@ -183,6 +184,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 507166</t>
+  </si>
+  <si>
+    <t>indra</t>
+  </si>
+  <si>
+    <t>vemula</t>
   </si>
 </sst>
 </file>
@@ -800,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144EFADA-1DAE-40C5-842B-F0DE981C5F04}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,4 +838,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2863E1-EBF3-424C-8AD8-A1345F225354}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ProjectG/src/test/resources/Project.xlsx
+++ b/ProjectG/src/test/resources/Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEEVAN SOORAJ\git\repository\ProjectG\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD0B1E4-9EC3-4590-B6BA-EFD88C69878F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7392594F-3695-487D-9650-0BA7F27465F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{787C7C8B-2596-4B62-91E2-34C89AE78464}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>UserName</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>vemula</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 500800</t>
   </si>
 </sst>
 </file>
@@ -845,7 +848,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -868,6 +871,9 @@
       <c r="B2" t="s">
         <v>50</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
